--- a/data/hotels_by_city/Dallas/Dallas_shard_735.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_735.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1084 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r579478293-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>73551</t>
+  </si>
+  <si>
+    <t>579478293</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Good price and just off highway</t>
+  </si>
+  <si>
+    <t>-Too bad the pool was empty.-Had a refrigerator and microwave in room.-Breakfast was there with: muffins, waffles, yogurt, coffee, and juice.  But the door was locked and you had to ask front desk to be let in.-Room was large. ***  Make sure to check your sheets. **  I found a needle like the ones that come on new clothes on the sheets while sleeping.  I am sure it was a one off, but just a warning.  ***</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r567024763-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>567024763</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Descent Hotel for price</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while visiting family in the area. The king rooms were huge; plenty of space. There was a microwave and fridge in the room  and a small coffee pot. The cons were: once we walked into the lobby on the day of check in, the smell of smoke was overwhelming: however,  our room did not. The next morning they had an air purifier set up and it was much better. The second thing I was upset about is the fact that the exercise room was "out of order"...wth?ALL in all, the staff was friendly and we had an uneventful stay.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r562950486-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>562950486</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Ok. A typical hotel for one night stays during business. Nothing to brag about. The staff was friendly and professional, thank you for that.The night was quiet and no load gatherings from the neighbors.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r538477656-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>538477656</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here if you are allergic to SMOKE!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked...I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked out the "Free" breakfast (which I was not told about at check in) There were waffles and cereal. I will never stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked...I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked out the "Free" breakfast (which I was not told about at check in) There were waffles and cereal. I will never stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r493301737-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>493301737</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r473918406-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>473918406</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover</t>
+  </si>
+  <si>
+    <t>Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the...Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the hall way dn the hall and even into our room. When we got to our room we were shocked and not in a good way the carpet was badly stained and so was the seats all of them not to mention they had roaches yes bugs living on the inside like the movie "Joe's apartment " we tried to keep a open mind but when we sat on the bed the mattress was old and worn out and the linen was also. If I could say anything about this hotel the most consistent thing about it was that every thing was old and worn out it looked like it hadn't been updated in many years I've seen college frat houses that were more inviting me and my wife didn't want any part of the room to touch us or get on us so we left. We spoke to the man down stairs and he apologized but refused to refund our money. We left in the middle of the night and sleept in our car. One thing is for sure we will not try to stay there ever again and we hope super eight makes them take their sign down for false advertising. Don't stop save yourself some money and sleep in your car!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the...Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the hall way dn the hall and even into our room. When we got to our room we were shocked and not in a good way the carpet was badly stained and so was the seats all of them not to mention they had roaches yes bugs living on the inside like the movie "Joe's apartment " we tried to keep a open mind but when we sat on the bed the mattress was old and worn out and the linen was also. If I could say anything about this hotel the most consistent thing about it was that every thing was old and worn out it looked like it hadn't been updated in many years I've seen college frat houses that were more inviting me and my wife didn't want any part of the room to touch us or get on us so we left. We spoke to the man down stairs and he apologized but refused to refund our money. We left in the middle of the night and sleept in our car. One thing is for sure we will not try to stay there ever again and we hope super eight makes them take their sign down for false advertising. Don't stop save yourself some money and sleep in your car!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r454751921-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>454751921</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Customer Service was not there</t>
+  </si>
+  <si>
+    <t>Room was clean.  We had 4 people in our room, only 2 towels, and when we requested more he acted like it was a big deal. We had to have our keycard redone every night of the 4 nights and they only wanted to do one instead of both, which is weird. Breakfast had no selection and no one wanted to refill anything.  Need some new customer service.  No elevator or internet either.  Would not recoommend</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r454531169-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>454531169</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Overnight at Super8</t>
+  </si>
+  <si>
+    <t>Nice size room.  Liked having the microwave and mini fridge.  Room had a musty smell, but then the AC was off when we arrived.  Got some air freshener anyway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r451252997-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451252997</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r435138331-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435138331</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r404885395-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>404885395</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The service was horrible. The pool dirty and the room smelled really bad of dog pee and cigerettes.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r404293529-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>404293529</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>sad,sad,sad</t>
+  </si>
+  <si>
+    <t>No towels in room after calling front desk I was told to come downstairs to get them. Then trying to watch television to whine down no volume, I was told there was no more rooms available.  So so sad has to be the  worse 80 bucks I ve spent this year.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r384669235-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384669235</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>The worst</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family. There was a sign at the front desk saying that card holders would be charged a deposit the same as the room and in 5 business days. Two weeks later still no refund. I have complained to the main office and nothing has come of it. I have talk to super eight numbers of times and I get a runaround every time. And on top of that the night I stayed I was locked out of my room for at least three hours because of a raid. The hotel said it had nothing to do with them so they cannot do anything about my room. This had to be the worst experience I've hadMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family. There was a sign at the front desk saying that card holders would be charged a deposit the same as the room and in 5 business days. Two weeks later still no refund. I have complained to the main office and nothing has come of it. I have talk to super eight numbers of times and I get a runaround every time. And on top of that the night I stayed I was locked out of my room for at least three hours because of a raid. The hotel said it had nothing to do with them so they cannot do anything about my room. This had to be the worst experience I've hadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r370668201-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>370668201</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay a little extra &amp; stay somewhere else. When you walk into this hotel it smells like smoke &amp; the rooms smell like it as well. It's just so run down there were stains in the hallway carpet, stains on our bed spread. Also cigarette burns on our bedspread. It was disgusting. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r370134693-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>370134693</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>"We don't care"</t>
+  </si>
+  <si>
+    <t>"We don't care" -- this could easily be the motto of this hotel. Torn carpet, paint chips, misaligned fixtures, bad smells, an "exercise room" padlocked and full of empty paint cans, the list could go on ... This place has been allowed to deteriorate to the point of needing a major overhaul. Some Super 8's are wonderful places, great values (one in NE Austin TX for example), but stay away from this one.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r361525637-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>361525637</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Spring Break 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was exceptionall.  Felt like I was visiting a friend.  Good accomodations.  Only negative was they didn't have the pool working and my three kids were very disappointed. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r337334055-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>337334055</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>I'm not one to usually complain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed in all sorts of hotels and normally I am not one to complain. We would have had less bugs if we went camping. Bugs were everywhere. I didn't even shower because when I turned on the light, bugs scattered everywhere from the tub. The mattresses on both beds had big tears in them. New years eve, the manager told us check out was at 11:00 but we should be in no hurry. Between 9:30 and 10:30, housekeeping knocked and asked if we were leaving FOUR TIMES! Stains everywhere. The complimentary coffee (we couldn't get any coffee for the in room coffee maker) was luke warm. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r330901864-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>330901864</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r317693547-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>317693547</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Pleasurable</t>
+  </si>
+  <si>
+    <t>First off the customer  service  was great and so was the pool. The rooms were very clean as well as the bathrooms,I ask my self would I stay at super 8 again yes I will and the wyndham  program is see ya soon super 8. Thank you Teresa and Ray</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r316169455-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>316169455</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Absolutely awful!!!</t>
+  </si>
+  <si>
+    <t>The front desk attendant was more concerned with getting her children and family taken care of then checking me in and I had a duffle bag, backpack, purse and drink all trying to hold them while she was talking to family members about taking her kids to the pool and when they will pick her up from work. The sheets and blankets had burn marks from cigarettes in them. The toilet paper was almost empty...both rolls. The room was filthy and disgusting. Awful experience!!!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r315981064-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>315981064</t>
+  </si>
+  <si>
+    <t>Great job on the desk work Jessica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job on the desk work Jessica. I could not make it in with my luggage so she help me to my room and we both apologize as it meant one guess what waiting for three mins, the maintenance man was rude for telling her to rush but she had sure I did not fall . Outstanding respect for a handicapped individual she should have been phrase for her efforts great job   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r298130126-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>298130126</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r295115791-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>295115791</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>The hotel as soon as you walk in has an overpowering marajuana smell all through it, there were multiple prostitutes and they approached you as soon as you arrived and witnessed drug activity in parking lot! Have stayed in super 8 for 14 years and would never go to this hotel again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r293483204-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>293483204</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>It's OK.</t>
+  </si>
+  <si>
+    <t>I have stayed at many Super 8s and in fact love them, but this one was below the standard of the others.  The room was super big and the beds comfortable, but there was a cigarette hole in the cover and the carpets were very dirty.  Also, their was a lot of traffic throughout the night.  It was pretty ghetto.  The staff was great though!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r283671905-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>283671905</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>Well, besides all the things that everybody knows (smells bad, air conditioner too noisy, nice staff, Internet doesn't work in the rooms)... I was charged twice! I paid in cash and when I got back home (in Brazil) I checked my credit card bill and noticed that they have charged me! I called several times, receptionists were telling me that they were checking the cameras and would return... 4 days calling and never received 1 single call back! ... Anyway, lesson learned... NEVER AGAIN!!!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r279996353-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>279996353</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r272055505-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>272055505</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r264863382-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>264863382</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r258873726-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>258873726</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Was supposed to be a non smoking room but the room smelt...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was supposed to be a non smoking room but the room smelt bad like someone had smoked &amp; they were covering up the smell with freshners. It did not work. All my clothes had a smell like I had been in a smokey bar for the night.    </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r257160603-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>257160603</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>NOT SO GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed three nights and the Internet service didn't work. You had to go next door to another motel and used their system. Good breakfast but eating area very small. Helpful desk persons. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r252619113-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>252619113</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r242181535-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>242181535</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r240463240-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>240463240</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>10 day stay gentleman at front desk was extremely helpful...</t>
+  </si>
+  <si>
+    <t>10 day stay gentleman at front desk was extremely helpful we were without accommodations with a pet and he wentOut of his way to help us.  When he heard we were going to be there 10 days he upgraded us to a suite which was greatly appreciated for as long as we were there.  Comfy bed great service clean and neat our sofaHad been spilled on and not cleaned theUphstery but that is all</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r238679770-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>238679770</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r238171559-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>238171559</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>clean and nicely located</t>
+  </si>
+  <si>
+    <t>Got a nice deal on one of the suites. Very clean and nice amenities. Typical continental breakfast. Nicely located to downtown and right off the highway. Thought the walls were a little thin. Could hear the neighbors baby but it was muted. Couldn't hear anyone in the hallways though. Bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r235629624-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235629624</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r225073857-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>225073857</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r219091152-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>219091152</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>This Super 8 is Super Helpful</t>
+  </si>
+  <si>
+    <t>While driving through Ft Worth on our way back to AZ we got involved in an accident and were stranded in Ft. Worth while waiting for our car to be fixed.  The staff at this hotel were extremely good to us.  The manager worked with us to give us a suite for the week at less than the regular room price and also steeply discounted the pet fee making our total price less per day than we would get at an extended stay motel.  The rooms are very nice and comfortable, the staff friendly and helpful.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r216944266-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>216944266</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r211267653-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>211267653</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r209486968-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>209486968</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r203649013-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>203649013</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>super 8 super night:)</t>
+  </si>
+  <si>
+    <t>stayed at the hotel for one night..excellent service beautiful rooms I was very satisfied .the service was great I strongly and personally recommend this hotel I had such a peaceful and quiet night sleep very good and rooms were on great condisions .brekfest was very good house keeping did out standing job..great service very good quality..</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r200233244-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200233244</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I stayed 5 nights with this hotel, and had 0 complaints. The rooms were beautiful, clean. Their employees were respectful, and helpful. We are not familiar with the area and the staff here had helped us get around an finds things to do. Will defiantly keep them in mind on my next trip back to the Dallas/ Fort Worth area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r193383649-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>193383649</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r188467937-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188467937</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r180373636-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>180373636</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Dead Cockaroach</t>
+  </si>
+  <si>
+    <t>there was a dead cockroach in my room. I arrived late the night I checked in and had to leave early the next morning. When I arrived back to my room next to the table in the open there was a DEAD COCKAROACH. between my check in and the time I found it the room should of been cleaned 2 times and if this was the case they would of found it. The room was dirty the staff was friendly however they only gave me 10% off from the one of the two nights for this. I feel this was not right and WOULD never stay with this place again!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>there was a dead cockroach in my room. I arrived late the night I checked in and had to leave early the next morning. When I arrived back to my room next to the table in the open there was a DEAD COCKAROACH. between my check in and the time I found it the room should of been cleaned 2 times and if this was the case they would of found it. The room was dirty the staff was friendly however they only gave me 10% off from the one of the two nights for this. I feel this was not right and WOULD never stay with this place again!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r175601830-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>175601830</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r169000594-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>169000594</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r162019435-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>162019435</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Disgusted</t>
+  </si>
+  <si>
+    <t>I will never stay again unless I get a free night to make up for storage 1 of the 2 Nights that I was there!!!!!!! My room was not cleaned after I was asked by front feel if I wanted that service,how embarrassing was that when all the bridesmaids showed up to ride in the limo to my mom's wedding,my mom also ha the same issue in her room,I didn't even complain about the roaches I killed,4to be exact !</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r160849454-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160849454</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r160721534-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160721534</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r154905751-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>154905751</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r153341662-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>153341662</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r152120517-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>152120517</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r148662088-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>148662088</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant one night stay</t>
+  </si>
+  <si>
+    <t>We found ourselves in Fort Worth with it raining and decided to stop for the night. This motel has a sign in the entryway that says it is new. I wasn't convinced that it wasn't an older hotel that had been remodeled. I asked for a room on the first floor (there is no elevator), away from traffic noise, and where I would get good wifi. Everything was sparkling, brand new. Room very comfortable, but wifi was weak. I ended up hooking up to the free Bestwestern which had a stronger signal! The young clerk needed some help with his English but he was very nice and courteous. We wanted recommendations on where to eat. His first was a steak house. Then after we chatted, he said that the Bombay Grill was a favorite for him. We went there and it was great!! Definitely would stay again. The breakfast was the usual, but they did have yogurt and boiled eggs. We booked the room online and got the room for $60 which included taxes.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We found ourselves in Fort Worth with it raining and decided to stop for the night. This motel has a sign in the entryway that says it is new. I wasn't convinced that it wasn't an older hotel that had been remodeled. I asked for a room on the first floor (there is no elevator), away from traffic noise, and where I would get good wifi. Everything was sparkling, brand new. Room very comfortable, but wifi was weak. I ended up hooking up to the free Bestwestern which had a stronger signal! The young clerk needed some help with his English but he was very nice and courteous. We wanted recommendations on where to eat. His first was a steak house. Then after we chatted, he said that the Bombay Grill was a favorite for him. We went there and it was great!! Definitely would stay again. The breakfast was the usual, but they did have yogurt and boiled eggs. We booked the room online and got the room for $60 which included taxes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r148473070-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>148473070</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r147563909-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147563909</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Older, but comfortable, big rooms</t>
+  </si>
+  <si>
+    <t>Exhausted, and heading south, I decided on a whim to stay here for the night. At $55 and right off I-35, the price wasn't bad. This hotel is older, and you feel that inside. However the rooms are all in-facing. They are also VERY large. The bed felt newer, and was comfortable. The continental breakfast was typical, cereal, toast, pastries. The staff was very friendly. Also, it's across the street from the Miller Brewery, so the smell of beer brewing fills the air.  The name is somewhat misleading, though. This hotel is not really near downtown Fort Worth, but rather several miles south on I-35.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r144269722-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>144269722</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Clean Room</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on our way back from the Texas/OU game and the room was very clean.  I thought the price was a little high but maybe it was because of the busy weekend.  I'm always skeptical when I get a cheaper hotel but this one was very nice and clean and is close to stockyards and other shopping areas.  Will stay at this location again.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r143800834-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>143800834</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r143570238-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>143570238</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r131647376-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>131647376</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Great hotel in Fort Worth</t>
+  </si>
+  <si>
+    <t>Our one night stay was absolutely wonderful!  It was more than we expected.  The only negative is:  This Super 8 is a former Best Western hotel.  We arrived after dark &amp; passed up the hotel because we couldn't see a Super 8 sign but the old Best Western sign.  When we made the block &amp; arrived at it a second time, we looked &amp; saw a Super 8 sign over the Best Western sign.  Because of the darkness we had not originally seen the Super 8 sign.Since we arrived late &amp; the hotel was quite full by the time we arrived, the desk clerk upgraded our reservation from 1 king size bed to a suite, all at no extra charge.  It had more than we needed, including a small refrigerator w/freezer, microwave, &amp; coffeemaker.  The room was very clean; we even performed a quick 'inspection' upon arriving, &amp; could only find cleanliness.  The bed was very comfortable.  The continental breakfast included cereal, muffins, boiled eggs, sausage, biscuits, juice &amp; cold milk.  The lady at the front desk working the night shift was very nice &amp; helpful with a great attitude.  Did I mention we found a superb price on the internet?We would definitely stay there again &amp; recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Our one night stay was absolutely wonderful!  It was more than we expected.  The only negative is:  This Super 8 is a former Best Western hotel.  We arrived after dark &amp; passed up the hotel because we couldn't see a Super 8 sign but the old Best Western sign.  When we made the block &amp; arrived at it a second time, we looked &amp; saw a Super 8 sign over the Best Western sign.  Because of the darkness we had not originally seen the Super 8 sign.Since we arrived late &amp; the hotel was quite full by the time we arrived, the desk clerk upgraded our reservation from 1 king size bed to a suite, all at no extra charge.  It had more than we needed, including a small refrigerator w/freezer, microwave, &amp; coffeemaker.  The room was very clean; we even performed a quick 'inspection' upon arriving, &amp; could only find cleanliness.  The bed was very comfortable.  The continental breakfast included cereal, muffins, boiled eggs, sausage, biscuits, juice &amp; cold milk.  The lady at the front desk working the night shift was very nice &amp; helpful with a great attitude.  Did I mention we found a superb price on the internet?We would definitely stay there again &amp; recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r119863371-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>119863371</t>
+  </si>
+  <si>
+    <t>10/29/2011</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We stayed here overnight last week end. Everything here was nice.Front desk was very friendly and helpful. It has easy access on and off the freeway and where it is at is feels very safe. We got a smoking room but it didnt smell. The rooms were very clean and everything worked.We didnt eat the continental breakfast but right down the street( in fact you could walk to it) is a Waffle House.If we are in the area again ,we will stay here.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r118272975-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>118272975</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Excellent all the way around!</t>
+  </si>
+  <si>
+    <t>As a person employed in the hospitality industry, I am very particular about where I stay. This was a last minute trip for a football game and I got an excellent room rate. The room was very nice and exceptionally clean. The late night staff was very warm and welcoming. We did not get to try the breakfast as we chose to sleep in. On our way out, Mr. [--] went out of his way to ask if we had  a good stay and if we had any suggestions for improvement. Since everything was excellent, we had nothing to say but "thank you". I would highly recommend this property to anyone and if I need to stay in that area again, I will certainly return!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>As a person employed in the hospitality industry, I am very particular about where I stay. This was a last minute trip for a football game and I got an excellent room rate. The room was very nice and exceptionally clean. The late night staff was very warm and welcoming. We did not get to try the breakfast as we chose to sleep in. On our way out, Mr. [--] went out of his way to ask if we had  a good stay and if we had any suggestions for improvement. Since everything was excellent, we had nothing to say but "thank you". I would highly recommend this property to anyone and if I need to stay in that area again, I will certainly return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r51744786-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>51744786</t>
+  </si>
+  <si>
+    <t>12/23/2009</t>
+  </si>
+  <si>
+    <t>Water was coming from under the wall and they didnt care</t>
+  </si>
+  <si>
+    <t>The room was nice and clean.  People were polite.  I noticed the carpet on one side of the room by the TV was wet.  The closer to the wall I got the wetter the carpet was.  I told the clerk and she said there wasnt anything on the other side of the wall to leak and ignored the problem.  She offered to move me to another room.  It wasnt bothering her so it didnt bother me.  The next moring half the carpet was soaked.  The manager was on site.  When I shouwed him, he told me the broiler was on the other side of the wall and that it must have leaked.  He was very concerned about  the broiler, but not really about me or my stay.  The manager and clerk asked me several times to fill out this survey and I am not sure why after the experiance.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>The room was nice and clean.  People were polite.  I noticed the carpet on one side of the room by the TV was wet.  The closer to the wall I got the wetter the carpet was.  I told the clerk and she said there wasnt anything on the other side of the wall to leak and ignored the problem.  She offered to move me to another room.  It wasnt bothering her so it didnt bother me.  The next moring half the carpet was soaked.  The manager was on site.  When I shouwed him, he told me the broiler was on the other side of the wall and that it must have leaked.  He was very concerned about  the broiler, but not really about me or my stay.  The manager and clerk asked me several times to fill out this survey and I am not sure why after the experiance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r48336090-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>48336090</t>
+  </si>
+  <si>
+    <t>11/02/2009</t>
+  </si>
+  <si>
+    <t>Treated as a Thief</t>
+  </si>
+  <si>
+    <t>Everything was nice until we checked out. We made reservations over a month in an advance. My wife paid with her debit card and the funds was transferr out before we got confirmation of our reservation. We had stayed there four other times with no problem in the past. This time the girl at the desk wanted to rerun my wifes card and sign for it even tho we had paid in full in a month advance. Then she wanted my wifes drivers lic # and made a copy of it ( which it cause concern cause of identy theif being so bad now days) and then i stepped in and wanted it mailed to me with in a week after they check the room that we did not steal anything from them. I believe this girl was creating a skame to steal from us. We never had this problem of the four other times we stayed there. We will no longer be staying there when visiting my son.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Everything was nice until we checked out. We made reservations over a month in an advance. My wife paid with her debit card and the funds was transferr out before we got confirmation of our reservation. We had stayed there four other times with no problem in the past. This time the girl at the desk wanted to rerun my wifes card and sign for it even tho we had paid in full in a month advance. Then she wanted my wifes drivers lic # and made a copy of it ( which it cause concern cause of identy theif being so bad now days) and then i stepped in and wanted it mailed to me with in a week after they check the room that we did not steal anything from them. I believe this girl was creating a skame to steal from us. We never had this problem of the four other times we stayed there. We will no longer be staying there when visiting my son.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r41099369-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>41099369</t>
+  </si>
+  <si>
+    <t>09/12/2009</t>
+  </si>
+  <si>
+    <t>Very Pleased with The Room and Great Hotel Staff!</t>
+  </si>
+  <si>
+    <t>When making the reservation in advance, the night clerk was wonderful to deal with. He even helped me with suggestions of places to see and things to do when we got there. 
+When we arrived the eveing clerk was also super friendly. We experienced the great Texas hospitality that everyone hears about.
+The room was clean and nothing was broken or in disrepair. The maid service was outstanding. We forgot to put up our sign once so we called and they came right away to make up our room.
+We were here one week and it was like having a home away from home. The pool was very warm. probably thanks to the 105 degree days during the heat wave. The exercise room was just kind of so-so and a bit stuffy.
+The continental breakfast was nicely stocked. What was especially nice was that everyday there was a different "hot" entree. One day it was a folded egg type thing (like a mini crepe/omelette) another day a breakfast burrito type thing and another biscuits and gravy. Since we were there a week, it was nice to have an element of variety in the breakfast. Get there early as when they run out of the hot, I am not sure they replenish it (but we were always there kinda at the end)
+It is located near the freeway but if you are in the back, you don't really hear the noise....When making the reservation in advance, the night clerk was wonderful to deal with. He even helped me with suggestions of places to see and things to do when we got there. When we arrived the eveing clerk was also super friendly. We experienced the great Texas hospitality that everyone hears about.The room was clean and nothing was broken or in disrepair. The maid service was outstanding. We forgot to put up our sign once so we called and they came right away to make up our room.We were here one week and it was like having a home away from home. The pool was very warm. probably thanks to the 105 degree days during the heat wave. The exercise room was just kind of so-so and a bit stuffy.The continental breakfast was nicely stocked. What was especially nice was that everyday there was a different "hot" entree. One day it was a folded egg type thing (like a mini crepe/omelette) another day a breakfast burrito type thing and another biscuits and gravy. Since we were there a week, it was nice to have an element of variety in the breakfast. Get there early as when they run out of the hot, I am not sure they replenish it (but we were always there kinda at the end)It is located near the freeway but if you are in the back, you don't really hear the noise. If you are using a GPS, it is not accurate around here. The freeway exits can be tricky and it is on a one way street so be careful to not miss it. Once you learn your way around the neighborhood, you learn how to make a loop around to get back to the freeway. Ask the clerk for directions and better yet, cal before you get there to get exact directions.This was a great place. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>When making the reservation in advance, the night clerk was wonderful to deal with. He even helped me with suggestions of places to see and things to do when we got there. 
+When we arrived the eveing clerk was also super friendly. We experienced the great Texas hospitality that everyone hears about.
+The room was clean and nothing was broken or in disrepair. The maid service was outstanding. We forgot to put up our sign once so we called and they came right away to make up our room.
+We were here one week and it was like having a home away from home. The pool was very warm. probably thanks to the 105 degree days during the heat wave. The exercise room was just kind of so-so and a bit stuffy.
+The continental breakfast was nicely stocked. What was especially nice was that everyday there was a different "hot" entree. One day it was a folded egg type thing (like a mini crepe/omelette) another day a breakfast burrito type thing and another biscuits and gravy. Since we were there a week, it was nice to have an element of variety in the breakfast. Get there early as when they run out of the hot, I am not sure they replenish it (but we were always there kinda at the end)
+It is located near the freeway but if you are in the back, you don't really hear the noise....When making the reservation in advance, the night clerk was wonderful to deal with. He even helped me with suggestions of places to see and things to do when we got there. When we arrived the eveing clerk was also super friendly. We experienced the great Texas hospitality that everyone hears about.The room was clean and nothing was broken or in disrepair. The maid service was outstanding. We forgot to put up our sign once so we called and they came right away to make up our room.We were here one week and it was like having a home away from home. The pool was very warm. probably thanks to the 105 degree days during the heat wave. The exercise room was just kind of so-so and a bit stuffy.The continental breakfast was nicely stocked. What was especially nice was that everyday there was a different "hot" entree. One day it was a folded egg type thing (like a mini crepe/omelette) another day a breakfast burrito type thing and another biscuits and gravy. Since we were there a week, it was nice to have an element of variety in the breakfast. Get there early as when they run out of the hot, I am not sure they replenish it (but we were always there kinda at the end)It is located near the freeway but if you are in the back, you don't really hear the noise. If you are using a GPS, it is not accurate around here. The freeway exits can be tricky and it is on a one way street so be careful to not miss it. Once you learn your way around the neighborhood, you learn how to make a loop around to get back to the freeway. Ask the clerk for directions and better yet, cal before you get there to get exact directions.This was a great place. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r2968991-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>2968991</t>
+  </si>
+  <si>
+    <t>12/31/2004</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>I arrived at the motel and they did not have my reservations, I waited in the lobby for a hour and a half. During this time the manager was tied up with a customer in front of other customers giving him a great deal, saying how he needed his buisness and he would give him his room for only $35.00 while other customers were in line, he was very rude to his employee and telling her not to pick up the phone, or just call them back, becuse they were trying to complete his buisness, they were there back and forth for almost 45 minutes, No sorry it took so long, or I apologize from the manager. I went ahead and took a room and they said they would refund me if the fax came in from my previous reservations, so I had paid two times for one night. The next morining I checked out and the refunded price was incorrect, and the refund went to the wrong customer, not to me. I have called them and they are suppose to call me back to get everything straightened out, its been 3 hours now and no call yet. As for the room it was ok, in one bathroom only hot water worked, and the other bathroom only cold water worked, and the first door did not work. I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at the motel and they did not have my reservations, I waited in the lobby for a hour and a half. During this time the manager was tied up with a customer in front of other customers giving him a great deal, saying how he needed his buisness and he would give him his room for only $35.00 while other customers were in line, he was very rude to his employee and telling her not to pick up the phone, or just call them back, becuse they were trying to complete his buisness, they were there back and forth for almost 45 minutes, No sorry it took so long, or I apologize from the manager. I went ahead and took a room and they said they would refund me if the fax came in from my previous reservations, so I had paid two times for one night. The next morining I checked out and the refunded price was incorrect, and the refund went to the wrong customer, not to me. I have called them and they are suppose to call me back to get everything straightened out, its been 3 hours now and no call yet. As for the room it was ok, in one bathroom only hot water worked, and the other bathroom only cold water worked, and the first door did not work. I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r2481246-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>2481246</t>
+  </si>
+  <si>
+    <t>08/21/2004</t>
+  </si>
+  <si>
+    <t>I requested a King bed suite with couch bed in living room.  The first room we were given did not have a microwave as listed; only a a refrigerator.  The carpet was in terrible shape; coming up in places and stained badly.  The air conditioner left an odor of burning cigars in the room.  It turned out that the air filter in the air conditioner was malfunctioning.  We were moved to another suite.  This one was better, although the bathroom in the King bedroom had many chipped tiles and the toilet bowl had a strange stain in it.  The carpets in both rooms were badly stained and the walls were in need of a face lift.  Free high speed Internet was advertised.  The first two nights noone knew how to access it.  The third night a manager was available and was aware that they had cables to give to guests for use in their rooms.  The worst misconception was that there was a fitness room.  The fitness room consisted of three very poor cardio machines (elipsis, recumbent bike and stepper, along with a scale and an ab bench).  The cardio machines were horrible.  The air conditioning had been removed from the room.  It was so hot that the horrible machines could not be used anyway.  The laundry room was air conditioned sufficiently and had a television, which was nice.  However, the floors behind and on the sides of the washers...I requested a King bed suite with couch bed in living room.  The first room we were given did not have a microwave as listed; only a a refrigerator.  The carpet was in terrible shape; coming up in places and stained badly.  The air conditioner left an odor of burning cigars in the room.  It turned out that the air filter in the air conditioner was malfunctioning.  We were moved to another suite.  This one was better, although the bathroom in the King bedroom had many chipped tiles and the toilet bowl had a strange stain in it.  The carpets in both rooms were badly stained and the walls were in need of a face lift.  Free high speed Internet was advertised.  The first two nights noone knew how to access it.  The third night a manager was available and was aware that they had cables to give to guests for use in their rooms.  The worst misconception was that there was a fitness room.  The fitness room consisted of three very poor cardio machines (elipsis, recumbent bike and stepper, along with a scale and an ab bench).  The cardio machines were horrible.  The air conditioning had been removed from the room.  It was so hot that the horrible machines could not be used anyway.  The laundry room was air conditioned sufficiently and had a television, which was nice.  However, the floors behind and on the sides of the washers and dryers had not been cleaned in days.  It was filthy.  The guest rooms and hallways are in need of a major facelift.Considering the prices charged, my stay was a total rip off.MoreShow less</t>
+  </si>
+  <si>
+    <t>I requested a King bed suite with couch bed in living room.  The first room we were given did not have a microwave as listed; only a a refrigerator.  The carpet was in terrible shape; coming up in places and stained badly.  The air conditioner left an odor of burning cigars in the room.  It turned out that the air filter in the air conditioner was malfunctioning.  We were moved to another suite.  This one was better, although the bathroom in the King bedroom had many chipped tiles and the toilet bowl had a strange stain in it.  The carpets in both rooms were badly stained and the walls were in need of a face lift.  Free high speed Internet was advertised.  The first two nights noone knew how to access it.  The third night a manager was available and was aware that they had cables to give to guests for use in their rooms.  The worst misconception was that there was a fitness room.  The fitness room consisted of three very poor cardio machines (elipsis, recumbent bike and stepper, along with a scale and an ab bench).  The cardio machines were horrible.  The air conditioning had been removed from the room.  It was so hot that the horrible machines could not be used anyway.  The laundry room was air conditioned sufficiently and had a television, which was nice.  However, the floors behind and on the sides of the washers...I requested a King bed suite with couch bed in living room.  The first room we were given did not have a microwave as listed; only a a refrigerator.  The carpet was in terrible shape; coming up in places and stained badly.  The air conditioner left an odor of burning cigars in the room.  It turned out that the air filter in the air conditioner was malfunctioning.  We were moved to another suite.  This one was better, although the bathroom in the King bedroom had many chipped tiles and the toilet bowl had a strange stain in it.  The carpets in both rooms were badly stained and the walls were in need of a face lift.  Free high speed Internet was advertised.  The first two nights noone knew how to access it.  The third night a manager was available and was aware that they had cables to give to guests for use in their rooms.  The worst misconception was that there was a fitness room.  The fitness room consisted of three very poor cardio machines (elipsis, recumbent bike and stepper, along with a scale and an ab bench).  The cardio machines were horrible.  The air conditioning had been removed from the room.  It was so hot that the horrible machines could not be used anyway.  The laundry room was air conditioned sufficiently and had a television, which was nice.  However, the floors behind and on the sides of the washers and dryers had not been cleaned in days.  It was filthy.  The guest rooms and hallways are in need of a major facelift.Considering the prices charged, my stay was a total rip off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r610166-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>610166</t>
+  </si>
+  <si>
+    <t>06/10/2002</t>
+  </si>
+  <si>
+    <t>DON'T stay here</t>
+  </si>
+  <si>
+    <t>When we checked in we discovered our bed was broken and I mean really bad broken it took 4 complaints to get something done.  The room was also dirty and many things were broke.  The security was terrible and the service was none exsistant.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1723,4339 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>216</v>
+      </c>
+      <c r="O32" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>218</v>
+      </c>
+      <c r="J33" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>234</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>241</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L39" t="s">
+        <v>246</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>259</v>
+      </c>
+      <c r="J43" t="s">
+        <v>260</v>
+      </c>
+      <c r="K43" t="s">
+        <v>261</v>
+      </c>
+      <c r="L43" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>263</v>
+      </c>
+      <c r="O43" t="s">
+        <v>189</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L44" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>276</v>
+      </c>
+      <c r="O46" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" t="s">
+        <v>280</v>
+      </c>
+      <c r="L47" t="s">
+        <v>281</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>282</v>
+      </c>
+      <c r="O47" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>282</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" t="s">
+        <v>289</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>290</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>300</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>300</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" t="s">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>169</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" t="s">
+        <v>189</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>313</v>
+      </c>
+      <c r="J55" t="s">
+        <v>314</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>311</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>316</v>
+      </c>
+      <c r="J56" t="s">
+        <v>317</v>
+      </c>
+      <c r="K56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L56" t="s">
+        <v>319</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" t="s">
+        <v>324</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>320</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" t="s">
+        <v>327</v>
+      </c>
+      <c r="K58" t="s">
+        <v>328</v>
+      </c>
+      <c r="L58" t="s">
+        <v>329</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>320</v>
+      </c>
+      <c r="O58" t="s">
+        <v>189</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>335</v>
+      </c>
+      <c r="O59" t="s">
+        <v>182</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>337</v>
+      </c>
+      <c r="J60" t="s">
+        <v>338</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>335</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>339</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>335</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s">
+        <v>345</v>
+      </c>
+      <c r="L62" t="s">
+        <v>346</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>347</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>350</v>
+      </c>
+      <c r="J63" t="s">
+        <v>351</v>
+      </c>
+      <c r="K63" t="s">
+        <v>352</v>
+      </c>
+      <c r="L63" t="s">
+        <v>353</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>354</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>355</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" t="s">
+        <v>357</v>
+      </c>
+      <c r="K64" t="s">
+        <v>358</v>
+      </c>
+      <c r="L64" t="s">
+        <v>359</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>360</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>363</v>
+      </c>
+      <c r="J65" t="s">
+        <v>364</v>
+      </c>
+      <c r="K65" t="s">
+        <v>365</v>
+      </c>
+      <c r="L65" t="s">
+        <v>366</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>370</v>
+      </c>
+      <c r="J66" t="s">
+        <v>371</v>
+      </c>
+      <c r="K66" t="s">
+        <v>372</v>
+      </c>
+      <c r="L66" t="s">
+        <v>373</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>374</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>377</v>
+      </c>
+      <c r="J67" t="s">
+        <v>378</v>
+      </c>
+      <c r="K67" t="s">
+        <v>379</v>
+      </c>
+      <c r="L67" t="s">
+        <v>380</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>381</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>384</v>
+      </c>
+      <c r="J68" t="s">
+        <v>385</v>
+      </c>
+      <c r="K68" t="s">
+        <v>386</v>
+      </c>
+      <c r="L68" t="s">
+        <v>387</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>390</v>
+      </c>
+      <c r="J69" t="s">
+        <v>391</v>
+      </c>
+      <c r="K69" t="s">
+        <v>175</v>
+      </c>
+      <c r="L69" t="s">
+        <v>392</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33763</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>394</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>395</v>
+      </c>
+      <c r="J70" t="s">
+        <v>396</v>
+      </c>
+      <c r="K70" t="s">
+        <v>397</v>
+      </c>
+      <c r="L70" t="s">
+        <v>398</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_735.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_735.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>I_Like_Cats_12</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>carol c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r567024763-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r562950486-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Deana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r538477656-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked...I stayed at this hotel 11-03 to 11-06 2017. The hotel looks nice on the outside and the lobby wad nice. As I walked to my room on the 1st floor I smelled cigarette smoke and it continued into the room which was a good room. I turned on the air conditioner to help with the smell. I opened a water cup for water and it smelled bad like it was soured. The bed was nice and I slept well until about 5 when you could hear everything /in the hallway. I could heard someone sneezing in another room. When I walked about that morning I ask the front desk for a do not disturb sign, a TV guide. I also ask if this was a smoking hotel. I was told there was smoking only on the 2nd floor but people do it anyway on the 1st floor. In the room the curtains were torn and had cigarette burn holes on them. I did check out the Free breakfast but there was nothing there so I thought it was over (8am).  I went to the store and bought allergy pills and nasal spray. -- I wish I had bought Fabreze too. The last morning I was there I was out of coffee cups and I call the desk for a cup. I was told they have cups at the desk and come get it and they hung up. I checked out the "Free" breakfast (which I was not told about at check in) There were waffles and cereal. I will never stay here again!!More</t>
   </si>
   <si>
+    <t>266sylvesters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r493301737-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>rodneyw631</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r473918406-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the...Found this hotel off the freeway coming to visit my mother. Being a Wyndham rewards Diamond member since 2015 I have come to love and respect the brand staying at several hotels a year and for the most part I have had a great experience most of the time with a few exceptions this being the most recent and most memorable. First of all from the outside this hotel was deceptively nice, the sign shines bright the accent lights were bright blue and the parking lot was clean, everything I had come to expect from super eight even though it was located in a somewhat scechy neighborhood. It was among several hotels lining the freeway but it looked to be the best. At cheek in even though I told the man behind the desk that I was a diamond rewards member and I wanted to use some of my points for a discount he denied me a told me he would give the discount he preferred. I ended up paying $75.00 in cash out of pocket wich wasnt what I expected but for fairness may have been the discounted rate. I had just drove six hours from Arkansas so me and my wife were tired and ready for a goodnight sleep boy were we surprised when the smell for marijuana seemed to hang in the air like a foul fart that wouldn't go away. The smell followed us up the hall way dn the hall and even into our room. When we got to our room we were shocked and not in a good way the carpet was badly stained and so was the seats all of them not to mention they had roaches yes bugs living on the inside like the movie "Joe's apartment " we tried to keep a open mind but when we sat on the bed the mattress was old and worn out and the linen was also. If I could say anything about this hotel the most consistent thing about it was that every thing was old and worn out it looked like it hadn't been updated in many years I've seen college frat houses that were more inviting me and my wife didn't want any part of the room to touch us or get on us so we left. We spoke to the man down stairs and he apologized but refused to refund our money. We left in the middle of the night and sleept in our car. One thing is for sure we will not try to stay there ever again and we hope super eight makes them take their sign down for false advertising. Don't stop save yourself some money and sleep in your car!!!More</t>
   </si>
   <si>
+    <t>DKCWM1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r454751921-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>P6532UUdonaldb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r454531169-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>Nice size room.  Liked having the microwave and mini fridge.  Room had a musty smell, but then the AC was off when we arrived.  Got some air freshener anyway.</t>
   </si>
   <si>
+    <t>dawnsQ6324AM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r451252997-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,6 +342,9 @@
     <t>01/11/2017</t>
   </si>
   <si>
+    <t>719lewisg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r435138331-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>917reag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r404885395-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,6 +378,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>angelagF4303LK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r404293529-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +399,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>johnboy8331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r384669235-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +423,9 @@
     <t>I stayed at this hotel with my family. There was a sign at the front desk saying that card holders would be charged a deposit the same as the room and in 5 business days. Two weeks later still no refund. I have complained to the main office and nothing has come of it. I have talk to super eight numbers of times and I get a runaround every time. And on top of that the night I stayed I was locked out of my room for at least three hours because of a raid. The hotel said it had nothing to do with them so they cannot do anything about my room. This had to be the worst experience I've hadMore</t>
   </si>
   <si>
+    <t>Madison P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r370668201-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Shortgame2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r370134693-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -420,6 +465,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>412brendaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r361525637-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>AprilPine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r337334055-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -456,6 +507,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Ricky P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r330901864-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -468,6 +522,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Teresa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r317693547-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,6 +543,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>548tiffaneyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r316169455-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +564,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Karl K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r315981064-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -516,6 +579,9 @@
     <t xml:space="preserve">Great job on the desk work Jessica. I could not make it in with my luggage so she help me to my room and we both apologize as it meant one guess what waiting for three mins, the maintenance man was rude for telling her to rush but she had sure I did not fall . Outstanding respect for a handicapped individual she should have been phrase for her efforts great job   </t>
   </si>
   <si>
+    <t>Sapphire M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r298130126-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,6 +600,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>johnaM2131JR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r295115791-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -549,6 +618,9 @@
     <t>The hotel as soon as you walk in has an overpowering marajuana smell all through it, there were multiple prostitutes and they approached you as soon as you arrived and witnessed drug activity in parking lot! Have stayed in super 8 for 14 years and would never go to this hotel again!</t>
   </si>
   <si>
+    <t>romojo483</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r293483204-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -567,6 +639,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>iLmSy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r283671905-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -588,6 +663,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>927christyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r279996353-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +675,9 @@
     <t>06/13/2015</t>
   </si>
   <si>
+    <t>Kandiss M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r272055505-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -609,6 +690,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Norman H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r264863382-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -621,6 +705,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Marsha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r258873726-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,6 +726,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Tallcoach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r257160603-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,6 +747,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>ladybug203</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r252619113-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +762,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Manuel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r242181535-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -681,6 +777,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>sandrawJ7860JQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r240463240-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,6 +795,9 @@
     <t>10 day stay gentleman at front desk was extremely helpful we were without accommodations with a pet and he wentOut of his way to help us.  When he heard we were going to be there 10 days he upgraded us to a suite which was greatly appreciated for as long as we were there.  Comfy bed great service clean and neat our sofaHad been spilled on and not cleaned theUphstery but that is all</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r238679770-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -705,6 +807,9 @@
     <t>11/07/2014</t>
   </si>
   <si>
+    <t>Kaley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r238171559-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -723,6 +828,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>681jefferyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r235629624-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -732,6 +840,9 @@
     <t>10/21/2014</t>
   </si>
   <si>
+    <t>Ben V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r225073857-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -744,6 +855,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Roy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r219091152-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,6 +876,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Crystal E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r216944266-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,6 +888,9 @@
     <t>07/22/2014</t>
   </si>
   <si>
+    <t>Wilma S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r211267653-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,6 +903,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r209486968-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +915,9 @@
     <t>06/08/2014</t>
   </si>
   <si>
+    <t>Gabby M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r203649013-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -810,6 +936,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Rdixon708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r200233244-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -825,6 +954,9 @@
     <t>I stayed 5 nights with this hotel, and had 0 complaints. The rooms were beautiful, clean. Their employees were respectful, and helpful. We are not familiar with the area and the staff here had helped us get around an finds things to do. Will defiantly keep them in mind on my next trip back to the Dallas/ Fort Worth area.</t>
   </si>
   <si>
+    <t>Dorsey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r193383649-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,6 +969,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r188467937-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,6 +984,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Helen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r180373636-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,6 +1008,9 @@
     <t>there was a dead cockroach in my room. I arrived late the night I checked in and had to leave early the next morning. When I arrived back to my room next to the table in the open there was a DEAD COCKAROACH. between my check in and the time I found it the room should of been cleaned 2 times and if this was the case they would of found it. The room was dirty the staff was friendly however they only gave me 10% off from the one of the two nights for this. I feel this was not right and WOULD never stay with this place again!!! More</t>
   </si>
   <si>
+    <t>Beverly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r175601830-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1020,9 @@
     <t>09/03/2013</t>
   </si>
   <si>
+    <t>Randy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r169000594-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1035,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Kendra J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r162019435-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1056,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Misty K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r160849454-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1071,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Josh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r160721534-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1083,9 @@
     <t>05/14/2013</t>
   </si>
   <si>
+    <t>renedom35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r154905751-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1098,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Yolanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r153341662-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1113,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Lorena G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r152120517-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1125,9 @@
     <t>02/14/2013</t>
   </si>
   <si>
+    <t>Texas1964</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r148662088-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1149,9 @@
     <t>We found ourselves in Fort Worth with it raining and decided to stop for the night. This motel has a sign in the entryway that says it is new. I wasn't convinced that it wasn't an older hotel that had been remodeled. I asked for a room on the first floor (there is no elevator), away from traffic noise, and where I would get good wifi. Everything was sparkling, brand new. Room very comfortable, but wifi was weak. I ended up hooking up to the free Bestwestern which had a stronger signal! The young clerk needed some help with his English but he was very nice and courteous. We wanted recommendations on where to eat. His first was a steak house. Then after we chatted, he said that the Bombay Grill was a favorite for him. We went there and it was great!! Definitely would stay again. The breakfast was the usual, but they did have yogurt and boiled eggs. We booked the room online and got the room for $60 which included taxes.More</t>
   </si>
   <si>
+    <t>Harold A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r148473070-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1161,9 @@
     <t>12/31/2012</t>
   </si>
   <si>
+    <t>TrueTexasTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r147563909-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1179,9 @@
     <t>Exhausted, and heading south, I decided on a whim to stay here for the night. At $55 and right off I-35, the price wasn't bad. This hotel is older, and you feel that inside. However the rooms are all in-facing. They are also VERY large. The bed felt newer, and was comfortable. The continental breakfast was typical, cereal, toast, pastries. The staff was very friendly. Also, it's across the street from the Miller Brewery, so the smell of beer brewing fills the air.  The name is somewhat misleading, though. This hotel is not really near downtown Fort Worth, but rather several miles south on I-35.</t>
   </si>
   <si>
+    <t>LAING R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r144269722-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1200,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Gayle107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r143800834-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1212,9 @@
     <t>10/26/2012</t>
   </si>
   <si>
+    <t>WOODY T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r143570238-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1224,9 @@
     <t>10/23/2012</t>
   </si>
   <si>
+    <t>PamSpring_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r131647376-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1248,9 @@
     <t>Our one night stay was absolutely wonderful!  It was more than we expected.  The only negative is:  This Super 8 is a former Best Western hotel.  We arrived after dark &amp; passed up the hotel because we couldn't see a Super 8 sign but the old Best Western sign.  When we made the block &amp; arrived at it a second time, we looked &amp; saw a Super 8 sign over the Best Western sign.  Because of the darkness we had not originally seen the Super 8 sign.Since we arrived late &amp; the hotel was quite full by the time we arrived, the desk clerk upgraded our reservation from 1 king size bed to a suite, all at no extra charge.  It had more than we needed, including a small refrigerator w/freezer, microwave, &amp; coffeemaker.  The room was very clean; we even performed a quick 'inspection' upon arriving, &amp; could only find cleanliness.  The bed was very comfortable.  The continental breakfast included cereal, muffins, boiled eggs, sausage, biscuits, juice &amp; cold milk.  The lady at the front desk working the night shift was very nice &amp; helpful with a great attitude.  Did I mention we found a superb price on the internet?We would definitely stay there again &amp; recommend it to others.More</t>
   </si>
   <si>
+    <t>G3311956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r119863371-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1269,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Donna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r118272975-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1293,9 @@
     <t>As a person employed in the hospitality industry, I am very particular about where I stay. This was a last minute trip for a football game and I got an excellent room rate. The room was very nice and exceptionally clean. The late night staff was very warm and welcoming. We did not get to try the breakfast as we chose to sleep in. On our way out, Mr. [--] went out of his way to ask if we had  a good stay and if we had any suggestions for improvement. Since everything was excellent, we had nothing to say but "thank you". I would highly recommend this property to anyone and if I need to stay in that area again, I will certainly return!More</t>
   </si>
   <si>
+    <t>Mick157</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r51744786-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1317,9 @@
     <t>The room was nice and clean.  People were polite.  I noticed the carpet on one side of the room by the TV was wet.  The closer to the wall I got the wetter the carpet was.  I told the clerk and she said there wasnt anything on the other side of the wall to leak and ignored the problem.  She offered to move me to another room.  It wasnt bothering her so it didnt bother me.  The next moring half the carpet was soaked.  The manager was on site.  When I shouwed him, he told me the broiler was on the other side of the wall and that it must have leaked.  He was very concerned about  the broiler, but not really about me or my stay.  The manager and clerk asked me several times to fill out this survey and I am not sure why after the experiance.More</t>
   </si>
   <si>
+    <t>rcooper47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r48336090-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1339,9 @@
   </si>
   <si>
     <t>Everything was nice until we checked out. We made reservations over a month in an advance. My wife paid with her debit card and the funds was transferr out before we got confirmation of our reservation. We had stayed there four other times with no problem in the past. This time the girl at the desk wanted to rerun my wifes card and sign for it even tho we had paid in full in a month advance. Then she wanted my wifes drivers lic # and made a copy of it ( which it cause concern cause of identy theif being so bad now days) and then i stepped in and wanted it mailed to me with in a week after they check the room that we did not steal anything from them. I believe this girl was creating a skame to steal from us. We never had this problem of the four other times we stayed there. We will no longer be staying there when visiting my son.More</t>
+  </si>
+  <si>
+    <t>akidcagal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r41099369-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
@@ -1177,6 +1375,9 @@
 It is located near the freeway but if you are in the back, you don't really hear the noise....When making the reservation in advance, the night clerk was wonderful to deal with. He even helped me with suggestions of places to see and things to do when we got there. When we arrived the eveing clerk was also super friendly. We experienced the great Texas hospitality that everyone hears about.The room was clean and nothing was broken or in disrepair. The maid service was outstanding. We forgot to put up our sign once so we called and they came right away to make up our room.We were here one week and it was like having a home away from home. The pool was very warm. probably thanks to the 105 degree days during the heat wave. The exercise room was just kind of so-so and a bit stuffy.The continental breakfast was nicely stocked. What was especially nice was that everyday there was a different "hot" entree. One day it was a folded egg type thing (like a mini crepe/omelette) another day a breakfast burrito type thing and another biscuits and gravy. Since we were there a week, it was nice to have an element of variety in the breakfast. Get there early as when they run out of the hot, I am not sure they replenish it (but we were always there kinda at the end)It is located near the freeway but if you are in the back, you don't really hear the noise. If you are using a GPS, it is not accurate around here. The freeway exits can be tricky and it is on a one way street so be careful to not miss it. Once you learn your way around the neighborhood, you learn how to make a loop around to get back to the freeway. Ask the clerk for directions and better yet, cal before you get there to get exact directions.This was a great place. Highly recommend.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r2968991-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1394,9 @@
   </si>
   <si>
     <t>I arrived at the motel and they did not have my reservations, I waited in the lobby for a hour and a half. During this time the manager was tied up with a customer in front of other customers giving him a great deal, saying how he needed his buisness and he would give him his room for only $35.00 while other customers were in line, he was very rude to his employee and telling her not to pick up the phone, or just call them back, becuse they were trying to complete his buisness, they were there back and forth for almost 45 minutes, No sorry it took so long, or I apologize from the manager. I went ahead and took a room and they said they would refund me if the fax came in from my previous reservations, so I had paid two times for one night. The next morining I checked out and the refunded price was incorrect, and the refund went to the wrong customer, not to me. I have called them and they are suppose to call me back to get everything straightened out, its been 3 hours now and no call yet. As for the room it was ok, in one bathroom only hot water worked, and the other bathroom only cold water worked, and the first door did not work. I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>Allison J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73551-r2481246-Super_8_Fort_Worth_South-Fort_Worth_Texas.html</t>
@@ -1727,43 +1931,47 @@
       <c r="A2" t="n">
         <v>33763</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>101887</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1781,50 +1989,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33763</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178718</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1838,50 +2050,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33763</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1895,50 +2111,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33763</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>21138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1958,35 +2178,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33763</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178719</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1994,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2018,51 +2242,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33763</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>116358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2086,50 +2311,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33763</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178720</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2153,50 +2382,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33763</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178721</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2220,35 +2453,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33763</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178722</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2256,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -2280,36 +2517,37 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33763</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178723</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2317,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2341,51 +2579,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33763</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178724</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2409,50 +2648,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33763</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178725</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2476,50 +2719,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33763</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178726</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2533,50 +2780,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33763</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>52877</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2590,50 +2841,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33763</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178727</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2653,50 +2908,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33763</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178728</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2720,50 +2979,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33763</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178729</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2787,35 +3050,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33763</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178730</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2823,10 +3090,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2847,51 +3114,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33763</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2915,50 +3183,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33763</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178731</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2982,50 +3254,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33763</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178732</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3049,48 +3325,52 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33763</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>118075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3114,50 +3394,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33763</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178733</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3181,50 +3465,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33763</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178734</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3248,50 +3536,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33763</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178735</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3305,35 +3597,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33763</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178736</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3341,10 +3637,10 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3365,36 +3661,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33763</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178737</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3402,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3426,49 +3723,50 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33763</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>34604</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3492,50 +3790,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33763</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>18038</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3559,50 +3861,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33763</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178738</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3626,35 +3932,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33763</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178739</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3662,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3686,36 +3996,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33763</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178740</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3723,10 +4034,10 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3747,51 +4058,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33763</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178741</v>
+      </c>
+      <c r="C34" t="s">
+        <v>253</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3815,35 +4127,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33763</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3851,10 +4167,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3875,51 +4191,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33763</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178742</v>
+      </c>
+      <c r="C36" t="s">
+        <v>263</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3943,35 +4260,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33763</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178743</v>
+      </c>
+      <c r="C37" t="s">
+        <v>270</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3979,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4003,36 +4324,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33763</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>42157</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4040,10 +4362,10 @@
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4064,51 +4386,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33763</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>50703</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4126,35 +4449,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33763</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178744</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4162,10 +4489,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4186,36 +4513,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33763</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178745</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4223,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4247,36 +4575,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33763</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4284,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4308,51 +4637,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33763</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178746</v>
+      </c>
+      <c r="C43" t="s">
+        <v>299</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="J43" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4376,41 +4706,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33763</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178747</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="J44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4439,35 +4773,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33763</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178748</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4475,10 +4813,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4489,36 +4827,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33763</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>832</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4526,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="O46" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4550,51 +4889,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33763</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>78653</v>
+      </c>
+      <c r="C47" t="s">
+        <v>322</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="O47" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4618,35 +4958,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33763</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>6865</v>
+      </c>
+      <c r="C48" t="s">
+        <v>330</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4654,10 +4998,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4678,36 +5022,37 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33763</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4715,10 +5060,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4739,51 +5084,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33763</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178749</v>
+      </c>
+      <c r="C50" t="s">
+        <v>339</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4807,35 +5153,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33763</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178750</v>
+      </c>
+      <c r="C51" t="s">
+        <v>346</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4843,10 +5193,10 @@
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4867,36 +5217,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33763</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>11040</v>
+      </c>
+      <c r="C52" t="s">
+        <v>351</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="J52" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -4904,10 +5255,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4928,36 +5279,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33763</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178751</v>
+      </c>
+      <c r="C53" t="s">
+        <v>355</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -4965,10 +5317,10 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -4989,49 +5341,50 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33763</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>6573</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="O54" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5055,35 +5408,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33763</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>65065</v>
+      </c>
+      <c r="C55" t="s">
+        <v>365</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="J55" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5091,10 +5448,10 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="O55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5111,51 +5468,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33763</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178752</v>
+      </c>
+      <c r="C56" t="s">
+        <v>369</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="J56" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="K56" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="L56" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5179,35 +5537,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33763</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C57" t="s">
+        <v>377</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="J57" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5215,10 +5577,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5237,51 +5599,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33763</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178753</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="O58" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5305,50 +5668,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33763</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178754</v>
+      </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="O59" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5372,35 +5739,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33763</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178755</v>
+      </c>
+      <c r="C60" t="s">
+        <v>394</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="J60" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5408,10 +5779,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="O60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5432,36 +5803,37 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33763</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178756</v>
+      </c>
+      <c r="C61" t="s">
+        <v>398</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="J61" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5469,10 +5841,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5493,51 +5865,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33763</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178757</v>
+      </c>
+      <c r="C62" t="s">
+        <v>402</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="J62" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5561,50 +5934,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33763</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178758</v>
+      </c>
+      <c r="C63" t="s">
+        <v>410</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="J63" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5628,50 +6005,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33763</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>7852</v>
+      </c>
+      <c r="C64" t="s">
+        <v>417</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="J64" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="K64" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="L64" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5693,50 +6074,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33763</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178759</v>
+      </c>
+      <c r="C65" t="s">
+        <v>425</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="J65" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="K65" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -5760,50 +6145,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33763</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178760</v>
+      </c>
+      <c r="C66" t="s">
+        <v>433</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -5827,50 +6216,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33763</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178761</v>
+      </c>
+      <c r="C67" t="s">
+        <v>441</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="J67" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="K67" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -5894,41 +6287,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33763</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="J68" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="K68" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="L68" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
@@ -5947,41 +6344,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33763</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>75784</v>
+      </c>
+      <c r="C69" t="s">
+        <v>456</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="J69" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="K69" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L69" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -6000,41 +6401,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33763</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>449</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="J70" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="K70" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="L70" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
@@ -6053,7 +6458,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
